--- a/excel_with_subclasses/basic/road.xlsx
+++ b/excel_with_subclasses/basic/road.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="road" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highway" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="controlled_access_highway" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="interchange" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1404,12 +1405,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Red de Carreteras de la Región de Murcia</t>
+          <t>road network of the region of Murcia</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -2980,68 +2981,68 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Q27469967</t>
+          <t>Q27537281</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Red de Carreteras del Estado</t>
+          <t>Red Local</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Q34442_дорога</t>
+          <t>Q55130337_carretera autonómica de tercer nivel</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Q27537281</t>
+          <t>Q27642501</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Red Local</t>
+          <t>Red de carreteras de la Diputación Provincial de Valladolid</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Q55130337_carretera autonómica de tercer nivel</t>
+          <t>Q55119867_carretera provincial</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Q27642501</t>
+          <t>Q27650858</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Red de carreteras de la Diputación Provincial de Valladolid</t>
+          <t>flat racing venue</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Q55119867_carretera provincial</t>
+          <t>Q11822917_ипподром</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Q27650858</t>
+          <t>Q27834361</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>flat racing venue</t>
+          <t>road network of the Principality of Asturias</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Q11822917_ипподром</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4759,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4946,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -4962,7 +4963,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -4979,7 +4980,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4997,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5014,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5031,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -5042,7 +5043,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>carretera autonómica</t>
+          <t>autonomous road</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5064,7 +5065,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -5098,7 +5099,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica,Q55119867_carretera provincial</t>
+          <t>Q55119611_autonomous road,Q55119867_carretera provincial</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5116,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Q34442_дорога,Q55119611_carretera autonómica,Q55119867_carretera provincial</t>
+          <t>Q34442_дорога,Q55119611_autonomous road,Q55119867_carretera provincial</t>
         </is>
       </c>
     </row>
@@ -5132,7 +5133,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -5149,7 +5150,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Q55119611_carretera autonómica</t>
+          <t>Q55119611_autonomous road</t>
         </is>
       </c>
     </row>
@@ -8220,4 +8221,193 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>subclass</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>subclasslabel</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q11075207</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cloverleaf interchange</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q11313284</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Smart interchange</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q11347628</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ramp</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q17125161</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Free-flow interchange</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q1861288</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>incomplete interchange</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q2521145</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>windmill interchange</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q43899262</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>trumpet interchange</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q5253909</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>stack interchange</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q628131</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diamond interchange</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Q2376564_транспортная развязка</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>